--- a/hardware/Venolo_V2_BOM.xlsx
+++ b/hardware/Venolo_V2_BOM.xlsx
@@ -1,15 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20225"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10614"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/adamfulford/Documents/EAGLE/projects/Venolo V2/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD32046E-AA69-6243-9A46-FE0EC8161FF3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3760" yWindow="3020" windowWidth="25360" windowHeight="15820" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="38400" windowHeight="21140" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="BOM" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="140000" concurrentCalc="0"/>
+  <calcPr calcId="140000"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -19,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="277" uniqueCount="219">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="278" uniqueCount="220">
   <si>
     <t>Part</t>
   </si>
@@ -676,12 +682,15 @@
   </si>
   <si>
     <t>612-1105SPF160Q1SBLK</t>
+  </si>
+  <si>
+    <t>alternative: 47K to boost maximum gain to 6.6dB</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -1091,6 +1100,14 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -1415,14 +1432,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:M56"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E22" workbookViewId="0">
-      <selection activeCell="G47" sqref="G47"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H27" sqref="H27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="10.83203125" style="13"/>
     <col min="2" max="2" width="35.33203125" style="13" customWidth="1"/>
@@ -1435,7 +1452,7 @@
     <col min="9" max="16384" width="10.83203125" style="13"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" s="14" t="s">
         <v>179</v>
       </c>
@@ -1447,7 +1464,7 @@
       <c r="G1" s="9"/>
       <c r="H1" s="15"/>
     </row>
-    <row r="2" spans="1:8">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" s="5" t="s">
         <v>97</v>
       </c>
@@ -1471,7 +1488,7 @@
       </c>
       <c r="H2" s="12"/>
     </row>
-    <row r="3" spans="1:8">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" s="3">
         <v>2</v>
       </c>
@@ -1495,7 +1512,7 @@
       </c>
       <c r="H3" s="12"/>
     </row>
-    <row r="4" spans="1:8">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" s="3">
         <v>2</v>
       </c>
@@ -1519,7 +1536,7 @@
       </c>
       <c r="H4" s="12"/>
     </row>
-    <row r="5" spans="1:8">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5" s="3">
         <v>3</v>
       </c>
@@ -1543,7 +1560,7 @@
       </c>
       <c r="H5" s="12"/>
     </row>
-    <row r="6" spans="1:8">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6" s="3">
         <v>5</v>
       </c>
@@ -1567,7 +1584,7 @@
       </c>
       <c r="H6" s="12"/>
     </row>
-    <row r="7" spans="1:8">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A7" s="3">
         <v>9</v>
       </c>
@@ -1591,7 +1608,7 @@
       </c>
       <c r="H7" s="12"/>
     </row>
-    <row r="8" spans="1:8">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A8" s="3">
         <v>4</v>
       </c>
@@ -1615,7 +1632,7 @@
       </c>
       <c r="H8" s="12"/>
     </row>
-    <row r="9" spans="1:8">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A9" s="3">
         <v>2</v>
       </c>
@@ -1639,7 +1656,7 @@
       </c>
       <c r="H9" s="12"/>
     </row>
-    <row r="10" spans="1:8">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A10" s="3">
         <v>2</v>
       </c>
@@ -1663,7 +1680,7 @@
       </c>
       <c r="H10" s="12"/>
     </row>
-    <row r="11" spans="1:8">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A11" s="3">
         <v>1</v>
       </c>
@@ -1687,7 +1704,7 @@
       </c>
       <c r="H11" s="12"/>
     </row>
-    <row r="12" spans="1:8">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A12" s="3">
         <v>1</v>
       </c>
@@ -1711,7 +1728,7 @@
       </c>
       <c r="H12" s="12"/>
     </row>
-    <row r="13" spans="1:8">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A13" s="3">
         <v>2</v>
       </c>
@@ -1735,7 +1752,7 @@
       </c>
       <c r="H13" s="12"/>
     </row>
-    <row r="14" spans="1:8">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A14" s="3">
         <v>1</v>
       </c>
@@ -1759,7 +1776,7 @@
       </c>
       <c r="H14" s="12"/>
     </row>
-    <row r="15" spans="1:8">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A15" s="3">
         <v>1</v>
       </c>
@@ -1785,7 +1802,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="16" spans="1:8">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A16" s="3">
         <v>1</v>
       </c>
@@ -1811,7 +1828,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="17" spans="1:9">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A17" s="3">
         <v>4</v>
       </c>
@@ -1840,7 +1857,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="18" spans="1:9">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A18" s="3">
         <v>2</v>
       </c>
@@ -1862,7 +1879,7 @@
       <c r="G18" s="1"/>
       <c r="H18" s="12"/>
     </row>
-    <row r="19" spans="1:9">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A19" s="3">
         <v>1</v>
       </c>
@@ -1884,7 +1901,7 @@
       <c r="G19" s="1"/>
       <c r="H19" s="12"/>
     </row>
-    <row r="20" spans="1:9">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A20" s="3">
         <v>1</v>
       </c>
@@ -1908,7 +1925,7 @@
       </c>
       <c r="H20" s="12"/>
     </row>
-    <row r="21" spans="1:9">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A21" s="3">
         <v>2</v>
       </c>
@@ -1930,7 +1947,7 @@
       </c>
       <c r="H21" s="12"/>
     </row>
-    <row r="22" spans="1:9">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A22" s="3">
         <v>1</v>
       </c>
@@ -1954,7 +1971,7 @@
       </c>
       <c r="H22" s="12"/>
     </row>
-    <row r="23" spans="1:9">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A23" s="3">
         <v>1</v>
       </c>
@@ -1978,7 +1995,7 @@
       </c>
       <c r="H23" s="12"/>
     </row>
-    <row r="24" spans="1:9">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A24" s="3">
         <v>2</v>
       </c>
@@ -2002,7 +2019,7 @@
       </c>
       <c r="H24" s="12"/>
     </row>
-    <row r="25" spans="1:9">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A25" s="3">
         <v>4</v>
       </c>
@@ -2020,7 +2037,7 @@
       </c>
       <c r="H25" s="12"/>
     </row>
-    <row r="26" spans="1:9">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A26" s="3">
         <v>1</v>
       </c>
@@ -2044,7 +2061,7 @@
       </c>
       <c r="H26" s="12"/>
     </row>
-    <row r="27" spans="1:9">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A27" s="3">
         <v>2</v>
       </c>
@@ -2066,9 +2083,11 @@
       <c r="G27" s="1" t="s">
         <v>149</v>
       </c>
-      <c r="H27" s="12"/>
-    </row>
-    <row r="28" spans="1:9">
+      <c r="H27" s="12" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A28" s="3">
         <v>1</v>
       </c>
@@ -2092,7 +2111,7 @@
       </c>
       <c r="H28" s="12"/>
     </row>
-    <row r="29" spans="1:9">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A29" s="3">
         <v>2</v>
       </c>
@@ -2116,7 +2135,7 @@
       </c>
       <c r="H29" s="12"/>
     </row>
-    <row r="30" spans="1:9">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A30" s="3">
         <v>1</v>
       </c>
@@ -2140,7 +2159,7 @@
       </c>
       <c r="H30" s="12"/>
     </row>
-    <row r="31" spans="1:9">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A31" s="3">
         <v>2</v>
       </c>
@@ -2164,7 +2183,7 @@
       </c>
       <c r="H31" s="12"/>
     </row>
-    <row r="32" spans="1:9">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A32" s="3">
         <v>4</v>
       </c>
@@ -2188,7 +2207,7 @@
       </c>
       <c r="H32" s="12"/>
     </row>
-    <row r="33" spans="1:13">
+    <row r="33" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A33" s="3">
         <v>2</v>
       </c>
@@ -2212,7 +2231,7 @@
       </c>
       <c r="H33" s="12"/>
     </row>
-    <row r="34" spans="1:13">
+    <row r="34" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A34" s="3">
         <v>1</v>
       </c>
@@ -2234,7 +2253,7 @@
       </c>
       <c r="H34" s="12"/>
     </row>
-    <row r="35" spans="1:13">
+    <row r="35" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A35" s="3">
         <v>1</v>
       </c>
@@ -2258,7 +2277,7 @@
       </c>
       <c r="H35" s="12"/>
     </row>
-    <row r="36" spans="1:13">
+    <row r="36" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A36" s="3">
         <v>2</v>
       </c>
@@ -2276,7 +2295,7 @@
       <c r="G36" s="1"/>
       <c r="H36" s="12"/>
     </row>
-    <row r="37" spans="1:13">
+    <row r="37" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A37" s="3">
         <v>4</v>
       </c>
@@ -2294,7 +2313,7 @@
       <c r="G37" s="1"/>
       <c r="H37" s="12"/>
     </row>
-    <row r="38" spans="1:13">
+    <row r="38" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A38" s="3">
         <v>1</v>
       </c>
@@ -2318,7 +2337,7 @@
       </c>
       <c r="H38" s="12"/>
     </row>
-    <row r="39" spans="1:13" ht="16" thickBot="1">
+    <row r="39" spans="1:13" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A39" s="4">
         <v>2</v>
       </c>
@@ -2338,7 +2357,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="40" spans="1:13">
+    <row r="40" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A40" s="3"/>
       <c r="B40" s="1"/>
       <c r="C40" s="1"/>
@@ -2348,7 +2367,7 @@
       <c r="G40" s="1"/>
       <c r="H40" s="12"/>
     </row>
-    <row r="41" spans="1:13">
+    <row r="41" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A41" s="5" t="s">
         <v>180</v>
       </c>
@@ -2360,7 +2379,7 @@
       <c r="G41" s="1"/>
       <c r="H41" s="12"/>
     </row>
-    <row r="42" spans="1:13">
+    <row r="42" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A42" s="5" t="s">
         <v>97</v>
       </c>
@@ -2384,7 +2403,7 @@
       </c>
       <c r="H42" s="12"/>
     </row>
-    <row r="43" spans="1:13" ht="45">
+    <row r="43" spans="1:13" ht="51" x14ac:dyDescent="0.2">
       <c r="A43" s="3">
         <v>13</v>
       </c>
@@ -2413,7 +2432,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="44" spans="1:13">
+    <row r="44" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A44" s="3">
         <v>2</v>
       </c>
@@ -2435,7 +2454,7 @@
       <c r="G44" s="1"/>
       <c r="H44" s="12"/>
     </row>
-    <row r="45" spans="1:13">
+    <row r="45" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A45" s="3">
         <v>7</v>
       </c>
@@ -2457,7 +2476,7 @@
       <c r="G45" s="1"/>
       <c r="H45" s="12"/>
     </row>
-    <row r="46" spans="1:13">
+    <row r="46" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A46" s="3">
         <v>3</v>
       </c>
@@ -2479,7 +2498,7 @@
       <c r="G46" s="1"/>
       <c r="H46" s="12"/>
     </row>
-    <row r="47" spans="1:13">
+    <row r="47" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A47" s="3">
         <v>3</v>
       </c>
@@ -2503,7 +2522,7 @@
       </c>
       <c r="H47" s="12"/>
     </row>
-    <row r="48" spans="1:13">
+    <row r="48" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A48" s="3">
         <v>3</v>
       </c>
@@ -2523,7 +2542,7 @@
       </c>
       <c r="H48" s="12"/>
     </row>
-    <row r="49" spans="1:8" ht="16" thickBot="1">
+    <row r="49" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A49" s="4">
         <v>10</v>
       </c>
@@ -2547,7 +2566,7 @@
       </c>
       <c r="H49" s="16"/>
     </row>
-    <row r="50" spans="1:8">
+    <row r="50" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A50" s="8"/>
       <c r="B50" s="9"/>
       <c r="C50" s="9"/>
@@ -2557,7 +2576,7 @@
       <c r="G50" s="9"/>
       <c r="H50" s="15"/>
     </row>
-    <row r="51" spans="1:8">
+    <row r="51" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A51" s="5" t="s">
         <v>200</v>
       </c>
@@ -2569,7 +2588,7 @@
       <c r="G51" s="1"/>
       <c r="H51" s="12"/>
     </row>
-    <row r="52" spans="1:8">
+    <row r="52" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A52" s="10">
         <v>2</v>
       </c>
@@ -2583,7 +2602,7 @@
       <c r="G52" s="1"/>
       <c r="H52" s="12"/>
     </row>
-    <row r="53" spans="1:8">
+    <row r="53" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A53" s="10">
         <v>2</v>
       </c>
@@ -2599,7 +2618,7 @@
       </c>
       <c r="H53" s="12"/>
     </row>
-    <row r="54" spans="1:8">
+    <row r="54" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A54" s="10">
         <v>2</v>
       </c>
@@ -2613,7 +2632,7 @@
       <c r="G54" s="1"/>
       <c r="H54" s="12"/>
     </row>
-    <row r="55" spans="1:8">
+    <row r="55" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A55" s="10">
         <v>13</v>
       </c>
@@ -2631,7 +2650,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="56" spans="1:8" ht="16" thickBot="1">
+    <row r="56" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A56" s="11">
         <v>1</v>
       </c>
@@ -2650,7 +2669,7 @@
       <c r="H56" s="16"/>
     </row>
   </sheetData>
-  <sortState ref="A2:G36">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G36">
     <sortCondition ref="B2:B36"/>
   </sortState>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
